--- a/inputs/co2_price.xlsx
+++ b/inputs/co2_price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC464DA-46BB-42A9-B9C9-769D114A66B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8179C23-B519-45AB-BE08-1FEB9B84B11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="2130" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>210</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -443,7 +443,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +489,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>308</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
